--- a/wxdgaming.game.basic/src/main/cfg/活动.xlsx
+++ b/wxdgaming.game.basic/src/main/cfg/活动.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="q_activity" sheetId="4" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>活动</t>
   </si>
@@ -121,6 +121,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>validation</t>
+  </si>
+  <si>
     <t>openTime</t>
   </si>
   <si>
@@ -130,6 +133,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>wxdgaming.boot2.core.lang.ConfigString</t>
+  </si>
+  <si>
     <t>wxdgaming.boot2.core.timer.CronExpress</t>
   </si>
   <si>
@@ -142,10 +148,16 @@
     <t>名称</t>
   </si>
   <si>
+    <t>限制条件</t>
+  </si>
+  <si>
     <t>开启时间</t>
   </si>
   <si>
     <t>活动1</t>
+  </si>
+  <si>
+    <t>OpenDay|gte|1;OpenDay|lte|999</t>
   </si>
   <si>
     <t>{"cron":"0 0 8 ? * ? ?","timeUnit":"MINUTES","duration":800,"openDay":5, "hefuDay":5}</t>
@@ -806,7 +818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -815,6 +827,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1146,26 +1162,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="76" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="48.375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="28.3833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="76" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="48.375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1175,8 +1192,9 @@
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
+      <c r="H1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1186,15 +1204,18 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1207,48 +1228,57 @@
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1001</v>
       </c>
@@ -1256,17 +1286,20 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6"/>
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
+      <c r="I6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -1274,17 +1307,20 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7"/>
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
+      <c r="I7"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>1003</v>
       </c>
@@ -1292,17 +1328,20 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8"/>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
+      <c r="I8"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>1004</v>
       </c>
@@ -1310,17 +1349,20 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9"/>
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
+      <c r="I9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>1005</v>
       </c>
@@ -1328,17 +1370,20 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10"/>
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
+      <c r="I10"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>1006</v>
       </c>
@@ -1346,17 +1391,20 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
+      <c r="I11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>1007</v>
       </c>
@@ -1364,18 +1412,21 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12"/>
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
+      <c r="I12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C13:C1048576">
+  <conditionalFormatting sqref="C13:D1048576">
     <cfRule type="containsText" dxfId="0" priority="29" operator="between" text="102133005">
       <formula>NOT(ISERROR(SEARCH("102133005",C13)))</formula>
     </cfRule>
